--- a/FME_files/UNIT_TESTS/CustomTransformers-TestUnitaires.xlsx
+++ b/FME_files/UNIT_TESTS/CustomTransformers-TestUnitaires.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="95">
   <si>
     <t>AB_DATA_READER.fmx</t>
   </si>
@@ -273,9 +273,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Unit Test pass</t>
   </si>
   <si>
@@ -298,6 +295,15 @@
   </si>
   <si>
     <t>Custom Transformer in fgp-metadata-proxy/FME_files</t>
+  </si>
+  <si>
+    <t>AB_FGP_XML_BUILDER_PROD_05</t>
+  </si>
+  <si>
+    <t>AMPERSAND_CHARACTER_REFERENCE_REMOVER</t>
+  </si>
+  <si>
+    <t>BC_FGP_XML_BUILDER_PROD_04</t>
   </si>
 </sst>
 </file>
@@ -456,7 +462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +645,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,7 +827,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -819,6 +843,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -864,7 +891,117 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -947,6 +1084,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1221,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,1149 +1378,1449 @@
     <col min="5" max="5" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
       <c r="B32" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="3" t="s">
-        <v>89</v>
+        <v>35</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
       <c r="B51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>67</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>89</v>
+      <c r="C74" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>89</v>
+      <c r="C77" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>89</v>
+      <c r="C80" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>89</v>
+      <c r="C82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:D84">
     <sortCondition ref="A2:A84"/>
   </sortState>
-  <conditionalFormatting sqref="E1:E9 E15:E80 E11:E13 E82:E84">
+  <conditionalFormatting sqref="E27 E16 E85 E1:E6 E43:E46 E48 E50:E51 E60:E61 E63:E71 E74:E75 E77 E79 F82:F83 E8:E11">
+    <cfRule type="expression" priority="48">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D11 D13:D28 D30:D57 D59:D63">
+    <cfRule type="cellIs" dxfId="18" priority="46" operator="equal">
+      <formula>"y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="47" operator="equal">
+      <formula>"""y"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73:D81 D84:D88">
+    <cfRule type="cellIs" dxfId="16" priority="44" operator="equal">
+      <formula>"y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="45" operator="equal">
+      <formula>"""y"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C11 C13:C87">
+    <cfRule type="cellIs" dxfId="14" priority="43" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B6 B62:B87 B8:B11 B13:B60">
+    <cfRule type="expression" priority="41">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="42" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="cellIs" dxfId="12" priority="40" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B6 B8:B11 B13:B87">
+    <cfRule type="cellIs" dxfId="11" priority="39" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="10" priority="37" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="9" priority="36" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" priority="35">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="8" priority="33" operator="equal">
+      <formula>"y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="34" operator="equal">
+      <formula>"""y"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="6" priority="32" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" priority="30">
+      <formula>isempty()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
+      <formula>"'"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="4" priority="29" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E15">
+    <cfRule type="expression" priority="28">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E26">
+    <cfRule type="expression" priority="27">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" priority="26">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" priority="25">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" priority="24">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E42">
+    <cfRule type="expression" priority="23">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" priority="21">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" priority="20">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" priority="19">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:E55">
+    <cfRule type="expression" priority="18">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" priority="17">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" priority="16">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" priority="15">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+      <formula>"n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" priority="13">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" priority="12">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
     <cfRule type="expression" priority="11">
       <formula>IF($D$2="y",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D60">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>"y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>"""y"""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D85">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>"""y"""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C84">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+  <conditionalFormatting sqref="D72">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B57 B59:B84">
-    <cfRule type="expression" priority="4">
-      <formula>isempty()</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" priority="9">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" priority="8">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="expression" priority="7">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" priority="6">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="expression" priority="5">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82:D83">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B84">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"n"</formula>
+  <conditionalFormatting sqref="E82:E83">
+    <cfRule type="expression" priority="3">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" priority="2">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" priority="1">
+      <formula>IF($D$2="y",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
